--- a/Base/TileMap/Formatting/Level5.xlsx
+++ b/Base/TileMap/Formatting/Level5.xlsx
@@ -555,3041 +555,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="400">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4534,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4948,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -5011,55 +1977,55 @@
         <v>1</v>
       </c>
       <c r="AA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AP3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AR3" s="1">
         <v>1</v>
@@ -5163,97 +2129,97 @@
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>1</v>
       </c>
       <c r="AA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="1">
         <v>1</v>
@@ -5336,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -5357,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -5387,13 +2353,13 @@
         <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>1</v>
@@ -5438,16 +2404,16 @@
         <v>1</v>
       </c>
       <c r="AN5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="1">
         <v>1</v>
@@ -5551,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -5584,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>1</v>
@@ -5632,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="AN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="1">
         <v>1</v>
@@ -5712,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -5724,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5736,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -5745,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -5778,46 +2744,46 @@
         <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>1</v>
@@ -5832,10 +2798,10 @@
         <v>1</v>
       </c>
       <c r="AP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
         <v>1</v>
@@ -5939,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -5972,10 +2938,10 @@
         <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>1</v>
@@ -6011,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>1</v>
@@ -6026,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="AP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="1">
         <v>1</v>
@@ -6133,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -6205,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>1</v>
@@ -6220,10 +3186,10 @@
         <v>1</v>
       </c>
       <c r="AP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="1">
         <v>1</v>
@@ -6327,22 +3293,22 @@
         <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>1</v>
@@ -6414,10 +3380,10 @@
         <v>1</v>
       </c>
       <c r="AP10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="1">
         <v>1</v>
@@ -6536,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
@@ -6587,19 +3553,19 @@
         <v>1</v>
       </c>
       <c r="AI11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
         <v>1</v>
@@ -6608,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="AP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="1">
         <v>1</v>
@@ -6682,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -6706,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -6745,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
@@ -6778,22 +3744,22 @@
         <v>1</v>
       </c>
       <c r="AH12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
         <v>1</v>
@@ -6802,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="AP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="1">
         <v>1</v>
@@ -6957,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD13" s="1">
         <v>0</v>
@@ -6975,19 +3941,19 @@
         <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AM13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="1">
         <v>1</v>
@@ -6996,10 +3962,10 @@
         <v>1</v>
       </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="1">
         <v>1</v>
@@ -7118,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -7166,22 +4132,22 @@
         <v>1</v>
       </c>
       <c r="AH14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="1">
         <v>1</v>
@@ -7190,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="1">
         <v>1</v>
@@ -7288,13 +4254,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
@@ -7363,19 +4329,19 @@
         <v>1</v>
       </c>
       <c r="AI15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="1">
         <v>1</v>
@@ -7384,10 +4350,10 @@
         <v>1</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="1">
         <v>1</v>
@@ -7578,10 +4544,10 @@
         <v>1</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="1">
         <v>1</v>
@@ -7736,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE17" s="1">
         <v>1</v>
@@ -7772,10 +4738,10 @@
         <v>1</v>
       </c>
       <c r="AP17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="1">
         <v>1</v>
@@ -7942,22 +4908,22 @@
         <v>1</v>
       </c>
       <c r="AH18" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AI18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AN18" s="1">
         <v>1</v>
@@ -7966,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="1">
         <v>1</v>
@@ -8046,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -8106,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -8136,22 +5102,22 @@
         <v>1</v>
       </c>
       <c r="AH19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="1">
         <v>1</v>
@@ -8160,10 +5126,10 @@
         <v>1</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="1">
         <v>1</v>
@@ -8240,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -8330,34 +5296,34 @@
         <v>1</v>
       </c>
       <c r="AH20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="1">
         <v>1</v>
       </c>
       <c r="AO20" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AP20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="1">
         <v>1</v>
@@ -8434,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -8524,34 +5490,34 @@
         <v>1</v>
       </c>
       <c r="AH21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="1">
         <v>1</v>
       </c>
       <c r="AO21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="1">
         <v>1</v>
@@ -8655,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -8718,31 +5684,31 @@
         <v>1</v>
       </c>
       <c r="AH22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="1">
         <v>1</v>
       </c>
       <c r="AO22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
         <v>1</v>
@@ -8882,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Y23" s="1">
         <v>0</v>
@@ -8912,31 +5878,31 @@
         <v>1</v>
       </c>
       <c r="AH23" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AI23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AN23" s="1">
         <v>1</v>
       </c>
       <c r="AO23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
         <v>1</v>
@@ -9106,31 +6072,31 @@
         <v>1</v>
       </c>
       <c r="AH24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="1">
         <v>1</v>
       </c>
       <c r="AO24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>1</v>
@@ -9234,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -9300,31 +6266,31 @@
         <v>1</v>
       </c>
       <c r="AH25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
         <v>1</v>
       </c>
       <c r="AO25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="1">
         <v>1</v>
@@ -9494,31 +6460,31 @@
         <v>1</v>
       </c>
       <c r="AH26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
         <v>1</v>
       </c>
       <c r="AO26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
         <v>1</v>
@@ -9598,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -9658,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -9688,31 +6654,31 @@
         <v>1</v>
       </c>
       <c r="AH27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="1">
         <v>1</v>
       </c>
       <c r="AO27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="1">
         <v>1</v>
@@ -9792,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -9828,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -9882,31 +6848,31 @@
         <v>1</v>
       </c>
       <c r="AH28" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AI28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AN28" s="1">
         <v>1</v>
       </c>
       <c r="AO28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
         <v>1</v>
@@ -10067,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AF29" s="1">
         <v>0</v>
@@ -10082,10 +7048,10 @@
         <v>1</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>1</v>
@@ -10097,10 +7063,10 @@
         <v>1</v>
       </c>
       <c r="AO29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="1">
         <v>1</v>
@@ -10255,46 +7221,46 @@
         <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="1">
         <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
         <v>1</v>
@@ -10371,10 +7337,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -10422,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U31" s="1">
         <v>1</v>
@@ -10467,28 +7433,28 @@
         <v>0</v>
       </c>
       <c r="AI31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AQ31" s="1">
         <v>1</v>
@@ -10565,10 +7531,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -10622,10 +7588,10 @@
         <v>1</v>
       </c>
       <c r="V32" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X32" s="1">
         <v>0</v>
@@ -10643,46 +7609,46 @@
         <v>0</v>
       </c>
       <c r="AC32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
         <v>1</v>
@@ -10759,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -10855,16 +7821,16 @@
         <v>1</v>
       </c>
       <c r="AI33" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AJ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AM33" s="1">
         <v>1</v>
@@ -10953,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -11025,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="AA34" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AB34" s="1">
         <v>1</v>
@@ -11052,10 +8018,10 @@
         <v>1</v>
       </c>
       <c r="AJ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>1</v>
@@ -11147,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -11246,10 +8212,10 @@
         <v>1</v>
       </c>
       <c r="AJ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>1</v>
@@ -11341,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -11362,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -11377,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P36" s="1">
         <v>1</v>
@@ -11404,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y36" s="1">
         <v>1</v>
@@ -11440,10 +8406,10 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>1</v>
@@ -11535,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -11607,52 +8573,52 @@
         <v>1</v>
       </c>
       <c r="AA37" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AB37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
         <v>1</v>
@@ -11729,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -11801,52 +8767,52 @@
         <v>1</v>
       </c>
       <c r="AA38" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AB38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="1">
         <v>1</v>
@@ -11923,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -11947,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -11962,10 +8928,10 @@
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -11998,16 +8964,16 @@
         <v>1</v>
       </c>
       <c r="AB39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="1">
         <v>1</v>
       </c>
       <c r="AE39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="1">
         <v>1</v>
@@ -12037,10 +9003,10 @@
         <v>1</v>
       </c>
       <c r="AO39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="1">
         <v>1</v>
@@ -12117,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -12189,19 +9155,19 @@
         <v>1</v>
       </c>
       <c r="AA40" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AB40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="1">
         <v>1</v>
       </c>
       <c r="AE40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="1">
         <v>1</v>
@@ -12222,19 +9188,19 @@
         <v>1</v>
       </c>
       <c r="AL40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
         <v>1</v>
@@ -12311,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -12386,37 +9352,37 @@
         <v>1</v>
       </c>
       <c r="AB41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="1">
         <v>1</v>
       </c>
       <c r="AE41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="1">
         <v>1</v>
       </c>
       <c r="AL41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="1">
         <v>1</v>
@@ -12425,10 +9391,10 @@
         <v>1</v>
       </c>
       <c r="AO41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <v>1</v>
@@ -12505,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -12604,13 +9570,13 @@
         <v>1</v>
       </c>
       <c r="AJ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="1">
         <v>1</v>
       </c>
       <c r="AL42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="1">
         <v>1</v>
@@ -12619,10 +9585,10 @@
         <v>1</v>
       </c>
       <c r="AO42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="1">
         <v>1</v>
@@ -12699,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -12720,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -12735,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P43" s="1">
         <v>1</v>
@@ -12765,46 +9731,46 @@
         <v>1</v>
       </c>
       <c r="Y43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="1">
         <v>1</v>
       </c>
       <c r="AJ43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="1">
         <v>1</v>
       </c>
       <c r="AL43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="1">
         <v>1</v>
@@ -12813,13 +9779,13 @@
         <v>1</v>
       </c>
       <c r="AO43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AR43" s="1">
         <v>1</v>
@@ -12893,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -12959,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="1">
         <v>1</v>
@@ -12977,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="AE44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="1">
         <v>1</v>
@@ -12986,19 +9952,19 @@
         <v>1</v>
       </c>
       <c r="AH44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="1">
         <v>1</v>
       </c>
       <c r="AL44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="1">
         <v>1</v>
@@ -13007,10 +9973,10 @@
         <v>1</v>
       </c>
       <c r="AO44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="1">
         <v>1</v>
@@ -13087,7 +10053,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -13153,7 +10119,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1">
         <v>1</v>
@@ -13162,16 +10128,16 @@
         <v>1</v>
       </c>
       <c r="AB45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="1">
         <v>1</v>
       </c>
       <c r="AE45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="1">
         <v>1</v>
@@ -13192,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="AL45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="1">
         <v>1</v>
@@ -13201,10 +10167,10 @@
         <v>1</v>
       </c>
       <c r="AO45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="1">
         <v>1</v>
@@ -13281,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -13347,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
         <v>1</v>
@@ -13356,37 +10322,37 @@
         <v>1</v>
       </c>
       <c r="AB46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="1">
         <v>1</v>
       </c>
       <c r="AE46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="1">
         <v>1</v>
@@ -13395,10 +10361,10 @@
         <v>1</v>
       </c>
       <c r="AO46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="1">
         <v>1</v>
@@ -13475,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -13526,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U47" s="1">
         <v>1</v>
@@ -13541,7 +10507,7 @@
         <v>1</v>
       </c>
       <c r="Y47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
         <v>1</v>
@@ -13550,10 +10516,10 @@
         <v>1</v>
       </c>
       <c r="AB47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="1">
         <v>1</v>
@@ -13586,13 +10552,13 @@
         <v>1</v>
       </c>
       <c r="AN47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="1">
         <v>1</v>
@@ -13669,13 +10635,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -13735,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="Y48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
         <v>1</v>
@@ -13744,49 +10710,49 @@
         <v>1</v>
       </c>
       <c r="AB48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="1">
         <v>1</v>
@@ -13863,10 +10829,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -13914,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="T49" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="U49" s="1">
         <v>1</v>
@@ -13929,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="Y49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
         <v>1</v>
@@ -13938,49 +10904,49 @@
         <v>1</v>
       </c>
       <c r="AB49" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AC49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="1">
         <v>1</v>
@@ -14057,73 +11023,73 @@
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
         <v>1</v>
@@ -14439,53 +11405,53 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="319" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="between">
       <formula>15</formula>
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BL51">
-    <cfRule type="cellIs" dxfId="316" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U16 V16:AD16">
-    <cfRule type="cellIs" dxfId="315" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="between">
       <formula>15</formula>
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U16 V16:AD16">
-    <cfRule type="cellIs" dxfId="312" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:AD17">
-    <cfRule type="cellIs" dxfId="311" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="between">
       <formula>15</formula>
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:AD17">
-    <cfRule type="cellIs" dxfId="308" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
